--- a/data_year/zb/综合/民族自治地方/民族自治地方农业.xlsx
+++ b/data_year/zb/综合/民族自治地方/民族自治地方农业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,340 +483,136 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3199.772531</v>
+        <v>10374.442211</v>
       </c>
       <c r="C2" t="n">
-        <v>5565.947</v>
+        <v>6067.8395</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2351</v>
+        <v>248.46636</v>
       </c>
       <c r="E2" t="n">
-        <v>353.162295</v>
+        <v>422.400995</v>
       </c>
       <c r="F2" t="n">
-        <v>935.70194</v>
+        <v>1156.219893</v>
       </c>
       <c r="G2" t="n">
-        <v>8200.842000000001</v>
+        <v>8141.2187</v>
       </c>
       <c r="H2" t="n">
-        <v>6381.356197</v>
+        <v>8307.912924</v>
       </c>
       <c r="I2" t="n">
-        <v>13075.8445</v>
+        <v>14885.2323</v>
       </c>
       <c r="J2" t="n">
-        <v>2086.4437</v>
+        <v>2380.47622</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5349.471615</v>
+        <v>12125.670481</v>
       </c>
       <c r="C3" t="n">
-        <v>6152.6251</v>
+        <v>6023.70098</v>
       </c>
       <c r="D3" t="n">
-        <v>187.92951</v>
+        <v>290.42125</v>
       </c>
       <c r="E3" t="n">
-        <v>372.021856</v>
+        <v>416.64584365</v>
       </c>
       <c r="F3" t="n">
-        <v>1027.40782</v>
+        <v>1186.01150333333</v>
       </c>
       <c r="G3" t="n">
-        <v>8526.4393</v>
+        <v>8098.9258</v>
       </c>
       <c r="H3" t="n">
-        <v>7186.776768</v>
+        <v>8691.2372959</v>
       </c>
       <c r="I3" t="n">
-        <v>16390.8288</v>
+        <v>14667.6275</v>
       </c>
       <c r="J3" t="n">
-        <v>2033.133455</v>
+        <v>2375.65994</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5905.8</v>
+        <v>13631.275064</v>
       </c>
       <c r="C4" t="n">
-        <v>6265.1</v>
+        <v>5485.6225</v>
       </c>
       <c r="D4" t="n">
-        <v>219.5</v>
+        <v>354.53683</v>
       </c>
       <c r="E4" t="n">
-        <v>359.5</v>
+        <v>454.671307</v>
       </c>
       <c r="F4" t="n">
-        <v>1050</v>
+        <v>1235.25106</v>
       </c>
       <c r="G4" t="n">
-        <v>8143.9</v>
+        <v>8554.59691</v>
       </c>
       <c r="H4" t="n">
-        <v>7202.1</v>
+        <v>9141.599066999999</v>
       </c>
       <c r="I4" t="n">
-        <v>16459.7</v>
+        <v>15130.6337</v>
       </c>
       <c r="J4" t="n">
-        <v>2087.6</v>
+        <v>2374.56882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7103.645079</v>
+        <v>17135.496084</v>
       </c>
       <c r="C5" t="n">
-        <v>5745.1795</v>
+        <v>5368.2969</v>
       </c>
       <c r="D5" t="n">
-        <v>302.141012</v>
+        <v>352.46145</v>
       </c>
       <c r="E5" t="n">
-        <v>286.540051</v>
+        <v>478.589826</v>
       </c>
       <c r="F5" t="n">
-        <v>1097.28364</v>
+        <v>1652.7935</v>
       </c>
       <c r="G5" t="n">
-        <v>7868.8837</v>
+        <v>8511.179599999999</v>
       </c>
       <c r="H5" t="n">
-        <v>7324.780878</v>
+        <v>9580.346890000001</v>
       </c>
       <c r="I5" t="n">
-        <v>15296.2524</v>
+        <v>15149.47547</v>
       </c>
       <c r="J5" t="n">
-        <v>2282.126</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>8260.449885</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5598.5962</v>
-      </c>
-      <c r="D6" t="n">
-        <v>303.33963</v>
-      </c>
-      <c r="E6" t="n">
-        <v>396.600293</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1114.1615</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7696.787</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7925.385821</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14466.9987</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2302.55307</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8260.449885</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5598.5962</v>
-      </c>
-      <c r="D7" t="n">
-        <v>303.33963</v>
-      </c>
-      <c r="E7" t="n">
-        <v>396.600293</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1114.1615</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7696.787</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7925.385821</v>
-      </c>
-      <c r="I7" t="n">
-        <v>14466.9987</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2302.55307</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10374.442211</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6067.8395</v>
-      </c>
-      <c r="D8" t="n">
-        <v>248.46636</v>
-      </c>
-      <c r="E8" t="n">
-        <v>422.400995</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1156.219893</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8141.2187</v>
-      </c>
-      <c r="H8" t="n">
-        <v>8307.912924</v>
-      </c>
-      <c r="I8" t="n">
-        <v>14885.2323</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2380.47622</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>12125.670481</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6023.70098</v>
-      </c>
-      <c r="D9" t="n">
-        <v>290.42125</v>
-      </c>
-      <c r="E9" t="n">
-        <v>416.64584365</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1186.01150333333</v>
-      </c>
-      <c r="G9" t="n">
-        <v>8098.9258</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8691.2372959</v>
-      </c>
-      <c r="I9" t="n">
-        <v>14667.6275</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2375.65994</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>13631.275064</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5485.6225</v>
-      </c>
-      <c r="D10" t="n">
-        <v>354.53683</v>
-      </c>
-      <c r="E10" t="n">
-        <v>454.671307</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1235.25106</v>
-      </c>
-      <c r="G10" t="n">
-        <v>8554.59691</v>
-      </c>
-      <c r="H10" t="n">
-        <v>9141.599066999999</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15130.6337</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2374.56882</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>17135.496084</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5368.2969</v>
-      </c>
-      <c r="D11" t="n">
-        <v>352.46145</v>
-      </c>
-      <c r="E11" t="n">
-        <v>478.589826</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1652.7935</v>
-      </c>
-      <c r="G11" t="n">
-        <v>8511.179599999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9580.346890000001</v>
-      </c>
-      <c r="I11" t="n">
-        <v>15149.47547</v>
-      </c>
-      <c r="J11" t="n">
         <v>2589.609</v>
       </c>
     </row>
